--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/_event.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/_event.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t xml:space="preserve">fadeIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WindRest</t>
   </si>
   <si>
     <t xml:space="preserve">editPlaylist</t>
@@ -658,7 +661,7 @@
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K53" sqref="K53"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -1165,7 +1168,7 @@
         <v>39</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1425,7 +1428,7 @@
         <v>41</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" s="6" customFormat="1" ht="12.8">
@@ -1744,8 +1747,11 @@
       </c>
     </row>
     <row r="41" ht="13.8">
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E41" s="1">
         <v>101</v>
@@ -1757,13 +1763,13 @@
         <v>3</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" ht="37.3">
@@ -1771,13 +1777,13 @@
         <v>4</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" ht="23.85">
@@ -1785,23 +1791,23 @@
         <v>5</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" ht="12.8">
       <c r="D45" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" ht="12.8">
       <c r="D46" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
@@ -1817,7 +1823,7 @@
     </row>
     <row r="48" ht="12.8">
       <c r="B48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -1828,7 +1834,7 @@
     </row>
     <row r="50" ht="12.8">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" ht="12.8">
@@ -2098,13 +2104,13 @@
         <v>6</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -2358,13 +2364,13 @@
         <v>7</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" s="6" customFormat="1" ht="12.8">
@@ -2631,7 +2637,7 @@
         <v>44</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" ht="12.8">
@@ -2639,12 +2645,15 @@
         <v>49</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" ht="13.8">
+      <c r="C58" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D58" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E58" s="1">
         <v>28</v>
@@ -2661,7 +2670,7 @@
     </row>
     <row r="60" ht="12.8">
       <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
